--- a/Cache/Metrics/Metrics_22.xlsx
+++ b/Cache/Metrics/Metrics_22.xlsx
@@ -509,10 +509,10 @@
         <v>700</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -541,11 +541,11 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>97.27</v>
+        <v>69.8</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Fri Jun 14 10:58:52 2024</t>
+          <t>Wed Jun 19 14:36:13 2024</t>
         </is>
       </c>
     </row>
@@ -685,13 +685,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.3819959279627219</v>
+        <v>0.6786005711954304</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5015873015873016</v>
+        <v>0.7487179487179487</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4087810073524359</v>
+        <v>0.7239159676229736</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -703,10 +703,10 @@
         <v>700</v>
       </c>
       <c r="M2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
@@ -715,10 +715,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -745,46 +745,46 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3601968855831334</v>
+        <v>0.6610447593342331</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3957859701636073</v>
+        <v>0.7437163844261109</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3435715496931843</v>
+        <v>0.708841363975699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01179840454980031</v>
+        <v>0.007856503320648257</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01684796985721756</v>
+        <v>0.01061674485098735</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01372704575748762</v>
+        <v>0.01287708354232859</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>EDA_wavelet_mean_cA3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>EDA_wavelet_median_cA3</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>EDA_wavelet_std_cA3</t>
         </is>
       </c>
       <c r="L3" t="n">
         <v>700</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -823,22 +823,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4064012910861383</v>
+        <v>0.6302017134911873</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4767098725361735</v>
+        <v>0.7386752062527139</v>
       </c>
       <c r="E4" t="n">
-        <v>0.406557373051019</v>
+        <v>0.6943011884113033</v>
       </c>
       <c r="F4" t="n">
-        <v>0.008800370169652348</v>
+        <v>0.00703992703483951</v>
       </c>
       <c r="G4" t="n">
-        <v>0.009066396008017275</v>
+        <v>0.007702347174650718</v>
       </c>
       <c r="H4" t="n">
-        <v>0.008124362438827361</v>
+        <v>0.007332614958377318</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -847,10 +847,10 @@
         <v>700</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -889,46 +889,46 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.380617152232521</v>
+        <v>0.6304421747842801</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4616074707185818</v>
+        <v>0.7060354609929078</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3863025307661229</v>
+        <v>0.6863234325769546</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007058407562509627</v>
+        <v>0.01328155720908814</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006576104733993515</v>
+        <v>0.01454483674892543</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006637863678501142</v>
+        <v>0.01480934819123137</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>EDA_wavelet_mean_cA3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>EDA_wavelet_median_cA3</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>EDA_wavelet_std_cA3</t>
         </is>
       </c>
       <c r="L5" t="n">
         <v>700</v>
       </c>
       <c r="M5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
@@ -937,10 +937,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -967,46 +967,46 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3953132414303205</v>
+        <v>0.5694080480922586</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5103586337608841</v>
+        <v>0.6792083755488012</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3832421523671027</v>
+        <v>0.6185510502688589</v>
       </c>
       <c r="F6" t="n">
-        <v>0.007188454072343332</v>
+        <v>0.01089227779330084</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005585920510639683</v>
+        <v>0.01305015186687786</v>
       </c>
       <c r="H6" t="n">
-        <v>0.005477776073388352</v>
+        <v>0.01556625016827657</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>EDA_wavelet_mean_cA3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>EDA_wavelet_median_cA3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>EDA_wavelet_std_cA3</t>
         </is>
       </c>
       <c r="L6" t="n">
         <v>700</v>
       </c>
       <c r="M6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.3897018399889667</v>
+        <v>0.6592338363390995</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4976243924331125</v>
+        <v>0.7278018285328316</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3774016595937393</v>
+        <v>0.6956947611426952</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007313575182034538</v>
+        <v>0.01109994222232929</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005485147632885849</v>
+        <v>0.01820721765900741</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005583707067160068</v>
+        <v>0.02128871479637359</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -1069,10 +1069,10 @@
         <v>700</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1111,46 +1111,46 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.3912504347853082</v>
+        <v>0.6539402118349485</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5019001686962306</v>
+        <v>0.7290086119554204</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3925701953451786</v>
+        <v>0.7105785258110646</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00783284091389813</v>
+        <v>0.01491257662874925</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005417397877110769</v>
+        <v>0.01096414913346378</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007607977395450916</v>
+        <v>0.01310539248251279</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>EDA_wavelet_mean_cA3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>EDA_wavelet_median_cA3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>EDA_wavelet_std_cA3</t>
         </is>
       </c>
       <c r="L8" t="n">
         <v>700</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="b">
         <v>1</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1189,46 +1189,46 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3928502300514623</v>
+        <v>0.5905265202633624</v>
       </c>
       <c r="D9" t="n">
-        <v>0.473902741213571</v>
+        <v>0.6338584455058618</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3929803244944813</v>
+        <v>0.6033702024587461</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005847262587812871</v>
+        <v>0.01860507716055445</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005023179757913911</v>
+        <v>0.03374573425387931</v>
       </c>
       <c r="H9" t="n">
-        <v>0.006036948731234285</v>
+        <v>0.03410162372005433</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>EDA_time_Median</t>
+          <t>EDA_wavelet_mean_cA3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>EDA_time_Range</t>
+          <t>EDA_wavelet_median_cA3</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>EDA_time_Entropy</t>
+          <t>EDA_wavelet_std_cA3</t>
         </is>
       </c>
       <c r="L9" t="n">
         <v>700</v>
       </c>
       <c r="M9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="b">
         <v>1</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3880472964511216</v>
+        <v>0.6278281805913385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4739841785031659</v>
+        <v>0.7083291876020924</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3832322550444039</v>
+        <v>0.6739515035207602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007977045005435879</v>
+        <v>0.01195540876707282</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007714588053968368</v>
+        <v>0.01554731166968455</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007599383020292822</v>
+        <v>0.01701157540845065</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1291,10 +1291,10 @@
         <v>700</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="b">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
